--- a/design/hardware/CAD_FILES/Senior Design Purchase Request (Bearing).xlsx
+++ b/design/hardware/CAD_FILES/Senior Design Purchase Request (Bearing).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymtdy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Purdue\ECE47700\DodgeBot\design\hardware\CAD_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5061498F-0BDC-492E-8108-E9BDE54D5083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C10020-8C38-4491-A0CE-C906EA72BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6202AF7F-2BD1-4FB3-9299-BDDA5367661D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6202AF7F-2BD1-4FB3-9299-BDDA5367661D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,6 +418,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,34 +446,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,6 +485,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,28 +512,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -837,7 +837,7 @@
   <dimension ref="B1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:N17"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -857,75 +857,75 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="F2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="29">
-        <v>45335</v>
-      </c>
-      <c r="P2" s="30"/>
+      <c r="O2" s="36">
+        <v>45342</v>
+      </c>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="30"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="2:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="19"/>
+      <c r="F5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
       <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
       <c r="S5" s="1" t="s">
         <v>24</v>
       </c>
@@ -934,68 +934,68 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="19"/>
+      <c r="F6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
       <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="33"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="19"/>
       <c r="N7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="F8" s="14" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
       <c r="N8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="17">
         <v>2405135229</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
       <c r="S8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1004,50 +1004,50 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="F9" s="20">
+      <c r="D9" s="19"/>
+      <c r="F9" s="22">
         <v>7600000796</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="N9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="12"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
       <c r="S9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1059,48 +1059,48 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" s="7">
         <v>43.01</v>
       </c>
       <c r="Q12" s="8">
         <f>O12*P12</f>
-        <v>86.02</v>
+        <v>129.03</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="6"/>
       <c r="P13" s="7">
         <v>0</v>
@@ -1111,19 +1111,19 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7">
         <v>0</v>
@@ -1134,19 +1134,19 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="6"/>
       <c r="P15" s="7">
         <v>0</v>
@@ -1160,19 +1160,19 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="6"/>
       <c r="P16" s="7">
         <v>0</v>
@@ -1183,19 +1183,19 @@
       </c>
     </row>
     <row r="17" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="6"/>
       <c r="P17" s="7">
         <v>0</v>
@@ -1206,19 +1206,19 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="6"/>
       <c r="P18" s="7">
         <v>0</v>
@@ -1229,19 +1229,19 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="6"/>
       <c r="P19" s="7">
         <v>0</v>
@@ -1252,42 +1252,42 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="6"/>
       <c r="P20" s="7">
         <v>0</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" ref="Q20:Q66" si="2">O20*P20</f>
+        <f t="shared" ref="Q20:Q32" si="2">O20*P20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="6"/>
       <c r="P21" s="7">
         <v>0</v>
@@ -1298,19 +1298,19 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
       <c r="O22" s="6"/>
       <c r="P22" s="7">
         <v>0</v>
@@ -1321,19 +1321,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
       <c r="O23" s="6"/>
       <c r="P23" s="7">
         <v>0</v>
@@ -1344,19 +1344,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="6"/>
       <c r="P24" s="7">
         <v>0</v>
@@ -1367,19 +1367,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
       <c r="O25" s="6"/>
       <c r="P25" s="7">
         <v>0</v>
@@ -1390,19 +1390,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
       <c r="O26" s="6"/>
       <c r="P26" s="7">
         <v>0</v>
@@ -1413,19 +1413,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
       <c r="O27" s="6"/>
       <c r="P27" s="7">
         <v>0</v>
@@ -1436,19 +1436,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="6"/>
       <c r="P28" s="7">
         <v>0</v>
@@ -1459,19 +1459,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
       <c r="O29" s="6"/>
       <c r="P29" s="7">
         <v>0</v>
@@ -1482,19 +1482,19 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="6"/>
       <c r="P30" s="7">
         <v>0</v>
@@ -1505,19 +1505,19 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="6"/>
       <c r="P31" s="7">
         <v>0</v>
@@ -1528,19 +1528,19 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="6"/>
       <c r="P32" s="7">
         <v>0</v>
@@ -1551,22 +1551,22 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="41"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="16"/>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -1575,692 +1575,590 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="38"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="13"/>
       <c r="Q34" s="5">
         <f>SUM(Q12:Q33)</f>
-        <v>96.02</v>
+        <v>139.03</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
     </row>
     <row r="36" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
     </row>
     <row r="37" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
     </row>
     <row r="38" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
     </row>
     <row r="39" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
     </row>
     <row r="40" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
     </row>
     <row r="41" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
     </row>
     <row r="42" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
     </row>
     <row r="43" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
     </row>
     <row r="44" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
     </row>
     <row r="45" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
     </row>
     <row r="46" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
     </row>
     <row r="47" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
     </row>
     <row r="48" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
     </row>
     <row r="49" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
     </row>
     <row r="50" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
     </row>
     <row r="51" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
     </row>
     <row r="52" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
     </row>
     <row r="53" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
     </row>
     <row r="54" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
     </row>
     <row r="55" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
     </row>
     <row r="56" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
     </row>
     <row r="57" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
     </row>
     <row r="58" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
     </row>
     <row r="59" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
     </row>
     <row r="60" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
     </row>
     <row r="61" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
     </row>
     <row r="62" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
     </row>
     <row r="63" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
     </row>
     <row r="64" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
     </row>
     <row r="65" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:N63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:N64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:N65"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:N60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:N61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:N62"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:N49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:N57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:N59"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:N56"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:N47"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:N51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:N48"/>
-    <mergeCell ref="E32:N32"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E31:N31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E30:N30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:N38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:N39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:N36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:N37"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:N25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:N14"/>
     <mergeCell ref="B15:D15"/>
@@ -2285,6 +2183,108 @@
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="E11:N11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E32:N32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:N38"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:N36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:N37"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:N25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:N47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:N51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:N48"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:N39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:N59"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:N56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:N63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:N64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:N65"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:N60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:N61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:N62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{4CB1483F-235E-49B2-B30F-5AC070171770}"/>
